--- a/tools/aoptk/test-data/updated_master_table.xlsx
+++ b/tools/aoptk/test-data/updated_master_table.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="B3" s="14" t="inlineStr">
         <is>
-          <t>2.1.2.</t>
+          <t>2.1.2. ; 3.1.</t>
         </is>
       </c>
       <c r="C3" s="14" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="B4" s="14" t="inlineStr">
         <is>
-          <t>2.1.2.</t>
+          <t>2.1.2. ; 3.1.</t>
         </is>
       </c>
       <c r="C4" s="14" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>2.1.2.</t>
+          <t>2.1.2. ; 3.1.</t>
         </is>
       </c>
       <c r="C5" s="14" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B6" s="14" t="inlineStr">
         <is>
-          <t>2.1.2. ; 3.8.2.</t>
+          <t>2.1.2. ; 3.8.2. ; 3.1.</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
